--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
@@ -90,11 +90,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -109,8 +106,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -490,63 +491,63 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="2" min="2" max="3"/>
-    <col width="9.7109375" customWidth="1" style="2" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="2" min="5" max="7"/>
-    <col width="13.5703125" customWidth="1" min="8" max="8"/>
-    <col width="64" customWidth="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="2" max="3"/>
+    <col width="9.7109375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="13.5703125" customWidth="1" style="8" min="8" max="8"/>
+    <col width="64" customWidth="1" style="8" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customFormat="1" customHeight="1" s="6">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="24" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>NrCrt.</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Tr. Acc</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Tr. Loss</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Val. Acc</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Val. Loss</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Eval. Acc</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Eval. Loss</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Average Time</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>Model Structure</t>
         </is>
@@ -556,24 +557,24 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>0.9931</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="6" t="n">
         <v>0.02294</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>0.983</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="6" t="n">
         <v>0.08409999999999999</v>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -586,7 +587,7 @@
           <t>(5x5)conv2d 16-&gt;32-&gt;64-&gt;128, (2x2)max pooling, dense 1024-&gt;256-&gt;6</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="K2" s="7" t="inlineStr">
         <is>
           <t>Global variables:</t>
         </is>
@@ -596,22 +597,22 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="6" t="n">
         <v>0.9889</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="6" t="n">
         <v>0.0393</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="6" t="n">
         <v>0.9495</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="6" t="n">
         <v>0.1973</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="6" t="n">
         <v>0.9518</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="6" t="n">
         <v>0.227</v>
       </c>
       <c r="H3" t="n">
@@ -635,22 +636,22 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="6" t="n">
         <v>0.9928</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="6" t="n">
         <v>0.0221</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="6" t="n">
         <v>0.9899</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="6" t="n">
         <v>0.0445</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="6" t="n">
         <v>0.9915</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="6" t="n">
         <v>0.0374</v>
       </c>
       <c r="H4" t="n">
@@ -674,22 +675,22 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="6" t="n">
         <v>0.9897</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="6" t="n">
         <v>0.0327</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="6" t="n">
         <v>0.9844000000000001</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>0.0664</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>0.9855</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>0.08550000000000001</v>
       </c>
       <c r="H5" t="n">
@@ -715,22 +716,22 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="6" t="n">
         <v>0.9891</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="6" t="n">
         <v>0.0339</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="6" t="n">
         <v>0.9936</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="6" t="n">
         <v>0.0347</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="6" t="n">
         <v>0.9926</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="6" t="n">
         <v>0.0299</v>
       </c>
       <c r="H6" t="n">
@@ -756,22 +757,22 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="6" t="n">
         <v>0.9843</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="6" t="n">
         <v>0.0542</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="6" t="n">
         <v>0.9651</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="6" t="n">
         <v>0.1161</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="6" t="n">
         <v>0.9644</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="6" t="n">
         <v>0.1466</v>
       </c>
       <c r="H7" t="n">
@@ -795,22 +796,22 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="6" t="n">
         <v>0.9922</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="6" t="n">
         <v>0.0229</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="6" t="n">
         <v>0.9592000000000001</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="6" t="n">
         <v>0.1728</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="6" t="n">
         <v>0.96</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="6" t="n">
         <v>0.1676</v>
       </c>
       <c r="H8" t="n">
@@ -834,22 +835,22 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="6" t="n">
         <v>0.995</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="6" t="n">
         <v>0.0151</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>0.9835</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>0.0437</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>0.9874000000000001</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>0.0438</v>
       </c>
       <c r="H9" t="n">
@@ -865,22 +866,22 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="6" t="n">
         <v>0.9944</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="6" t="n">
         <v>0.0204</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="6" t="n">
         <v>0.9913</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="6" t="n">
         <v>0.0595</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="6" t="n">
         <v>0.9915</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="6" t="n">
         <v>0.0393</v>
       </c>
       <c r="H10" t="n">
@@ -896,22 +897,22 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="6" t="n">
         <v>0.9932</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="6" t="n">
         <v>0.9771</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="6" t="n">
         <v>0.08359999999999999</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="6" t="n">
         <v>0.9848</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="6" t="n">
         <v>0.06469999999999999</v>
       </c>
       <c r="H11" t="n">
@@ -927,43 +928,83 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>99.21%</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>2.59%</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>99.27%</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>2.76%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>99.56%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.10%</t>
-        </is>
+      <c r="B12" s="6" t="n">
+        <v>0.9921</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.0259</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0.9927</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.9956</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.011</v>
       </c>
       <c r="H12" t="n">
-        <v>2057</v>
+        <v>47</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>(3x3)conv2d 8-&gt;32-&gt;64-&gt;128, (2x2)max pooling, dense 1024-&gt;512-&gt;6</t>
         </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5473</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.1094</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7372</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6841</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7543</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6385</v>
+      </c>
+      <c r="H13" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9712</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7839</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6429</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7872</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="H14" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
@@ -106,13 +106,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -493,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -502,8 +502,8 @@
     <col width="9.140625" customWidth="1" style="1" min="2" max="3"/>
     <col width="9.7109375" customWidth="1" style="1" min="4" max="4"/>
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
-    <col width="13.5703125" customWidth="1" style="8" min="8" max="8"/>
-    <col width="64" customWidth="1" style="8" min="9" max="9"/>
+    <col width="13.5703125" customWidth="1" style="9" min="8" max="8"/>
+    <col width="64" customWidth="1" style="9" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customFormat="1" customHeight="1" s="5">
@@ -512,32 +512,32 @@
           <t>NrCrt.</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Tr. Acc</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Tr. Loss</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Val. Acc</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Val. Loss</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Eval. Acc</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Eval. Loss</t>
         </is>
@@ -587,7 +587,7 @@
           <t>(5x5)conv2d 16-&gt;32-&gt;64-&gt;128, (2x2)max pooling, dense 1024-&gt;256-&gt;6</t>
         </is>
       </c>
-      <c r="K2" s="7" t="inlineStr">
+      <c r="K2" s="8" t="inlineStr">
         <is>
           <t>Global variables:</t>
         </is>
@@ -960,53 +960,33 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5473</v>
+        <v>0.9843</v>
       </c>
       <c r="C13" t="n">
-        <v>1.1094</v>
+        <v>0.0538</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7372</v>
+        <v>0.989</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6841</v>
+        <v>0.0415</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7543</v>
+        <v>0.9911</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6385</v>
+        <v>0.0299</v>
       </c>
       <c r="H13" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.6104000000000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9712</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7839</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6429</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7872</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="H14" t="n">
-        <v>46</v>
-      </c>
-    </row>
+        <v>2154</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(3x3)conv2d 8-&gt;32-&gt;64-&gt;128, (2x2)max pooling, dense 2048-&gt;512-&gt;6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -986,7 +986,32 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6307</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7716</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6092</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7528</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6395</v>
+      </c>
+      <c r="H14" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
@@ -1012,6 +1012,32 @@
         <v>47</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5506</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.1139</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7615</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6539</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7628</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6686</v>
+      </c>
+      <c r="H15" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -90,9 +90,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -106,13 +105,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -491,63 +488,63 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="1" min="2" max="3"/>
-    <col width="9.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
-    <col width="13.5703125" customWidth="1" style="9" min="8" max="8"/>
-    <col width="64" customWidth="1" style="9" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="5" min="2" max="3"/>
+    <col width="9.7109375" customWidth="1" style="5" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="5" min="5" max="7"/>
+    <col width="13.5703125" customWidth="1" style="7" min="8" max="8"/>
+    <col width="72.28515625" customWidth="1" style="7" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customFormat="1" customHeight="1" s="5">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="24" customFormat="1" customHeight="1" s="4">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>NrCrt.</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Tr. Acc</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Tr. Loss</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Val. Acc</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Val. Loss</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Eval. Acc</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Eval. Loss</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Average Time</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Model Structure</t>
         </is>
@@ -557,24 +554,24 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>0.9931</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>0.02294</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>0.983</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="5" t="n">
         <v>0.08409999999999999</v>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -587,7 +584,7 @@
           <t>(5x5)conv2d 16-&gt;32-&gt;64-&gt;128, (2x2)max pooling, dense 1024-&gt;256-&gt;6</t>
         </is>
       </c>
-      <c r="K2" s="8" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>Global variables:</t>
         </is>
@@ -597,22 +594,22 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="5" t="n">
         <v>0.9889</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5" t="n">
         <v>0.0393</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="5" t="n">
         <v>0.9495</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="5" t="n">
         <v>0.1973</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>0.9518</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>0.227</v>
       </c>
       <c r="H3" t="n">
@@ -636,22 +633,22 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="5" t="n">
         <v>0.9928</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="5" t="n">
         <v>0.0221</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>0.9899</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="5" t="n">
         <v>0.0445</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>0.9915</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>0.0374</v>
       </c>
       <c r="H4" t="n">
@@ -675,22 +672,22 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="5" t="n">
         <v>0.9897</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.0327</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.9844000000000001</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.0664</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>0.9855</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>0.08550000000000001</v>
       </c>
       <c r="H5" t="n">
@@ -716,22 +713,22 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>0.9891</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.0339</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.9936</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.0347</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>0.9926</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>0.0299</v>
       </c>
       <c r="H6" t="n">
@@ -757,22 +754,22 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="5" t="n">
         <v>0.9843</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="5" t="n">
         <v>0.0542</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="5" t="n">
         <v>0.9651</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="5" t="n">
         <v>0.1161</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>0.9644</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="5" t="n">
         <v>0.1466</v>
       </c>
       <c r="H7" t="n">
@@ -796,22 +793,22 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="5" t="n">
         <v>0.9922</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="5" t="n">
         <v>0.0229</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="5" t="n">
         <v>0.9592000000000001</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.1728</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5" t="n">
         <v>0.96</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="5" t="n">
         <v>0.1676</v>
       </c>
       <c r="H8" t="n">
@@ -835,22 +832,22 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="5" t="n">
         <v>0.995</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="5" t="n">
         <v>0.0151</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.9835</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="5" t="n">
         <v>0.0437</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="5" t="n">
         <v>0.9874000000000001</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="5" t="n">
         <v>0.0438</v>
       </c>
       <c r="H9" t="n">
@@ -866,22 +863,22 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="5" t="n">
         <v>0.9944</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="5" t="n">
         <v>0.0204</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="5" t="n">
         <v>0.9913</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="5" t="n">
         <v>0.0595</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="5" t="n">
         <v>0.9915</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="5" t="n">
         <v>0.0393</v>
       </c>
       <c r="H10" t="n">
@@ -897,22 +894,22 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="5" t="n">
         <v>0.9932</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.9771</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.08359999999999999</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="5" t="n">
         <v>0.9848</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="5" t="n">
         <v>0.06469999999999999</v>
       </c>
       <c r="H11" t="n">
@@ -928,22 +925,22 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="5" t="n">
         <v>0.9921</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.0259</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="5" t="n">
         <v>0.9927</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="5" t="n">
         <v>0.0276</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="5" t="n">
         <v>0.9956</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="5" t="n">
         <v>0.011</v>
       </c>
       <c r="H12" t="n">
@@ -959,26 +956,27 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="5" t="n">
         <v>0.9843</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="5" t="n">
         <v>0.0538</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5" t="n">
         <v>0.989</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="5" t="n">
         <v>0.0415</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="5" t="n">
         <v>0.9911</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5" t="n">
         <v>0.0299</v>
       </c>
-      <c r="H13" t="n">
-        <v>2154</v>
+      <c r="H13" s="8">
+        <f>2154/50</f>
+        <v/>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -991,51 +989,30 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6307</v>
+        <v>0.9928</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9557</v>
+        <v>0.0232</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7716</v>
+        <v>0.9908</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6092</v>
+        <v>0.0316</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7528</v>
+        <v>0.9933</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6395</v>
+        <v>0.0269</v>
       </c>
       <c r="H14" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5506</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.1139</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7615</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.6539</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7628</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.6686</v>
-      </c>
-      <c r="H15" t="n">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;256-&gt;6, dropout 0.25</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -105,11 +105,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -488,10 +488,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -499,8 +499,8 @@
     <col width="9.140625" customWidth="1" style="5" min="2" max="3"/>
     <col width="9.7109375" customWidth="1" style="5" min="4" max="4"/>
     <col width="9.140625" customWidth="1" style="5" min="5" max="7"/>
-    <col width="13.5703125" customWidth="1" style="7" min="8" max="8"/>
-    <col width="72.28515625" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.5703125" customWidth="1" style="8" min="8" max="8"/>
+    <col width="72.28515625" customWidth="1" style="8" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customFormat="1" customHeight="1" s="4">
@@ -584,7 +584,7 @@
           <t>(5x5)conv2d 16-&gt;32-&gt;64-&gt;128, (2x2)max pooling, dense 1024-&gt;256-&gt;6</t>
         </is>
       </c>
-      <c r="K2" s="6" t="inlineStr">
+      <c r="K2" s="7" t="inlineStr">
         <is>
           <t>Global variables:</t>
         </is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -974,7 +974,7 @@
       <c r="G13" s="5" t="n">
         <v>0.0299</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <f>2154/50</f>
         <v/>
       </c>
@@ -988,22 +988,22 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="5" t="n">
         <v>0.9928</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="5" t="n">
         <v>0.0232</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.9908</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="5" t="n">
         <v>0.0316</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="5" t="n">
         <v>0.9933</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5" t="n">
         <v>0.0269</v>
       </c>
       <c r="H14" t="n">
@@ -1012,6 +1012,37 @@
       <c r="I14" t="inlineStr">
         <is>
           <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;256-&gt;6, dropout 0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9913999999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0308</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0358</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="H15" t="n">
+        <v>44</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;256-&gt;6, dropout 0.3</t>
         </is>
       </c>
     </row>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -1046,6 +1046,37 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9862</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H16" t="n">
+        <v>45</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;256-&gt;6, dropout 0.27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -1077,6 +1077,37 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9931</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="H17" t="n">
+        <v>45</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;256-&gt;6, dropout 0.17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,10 +488,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1019,22 +1019,22 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="5" t="n">
         <v>0.9913999999999999</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.0308</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.989</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.0358</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="5" t="n">
         <v>0.9903999999999999</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5" t="n">
         <v>0.0316</v>
       </c>
       <c r="H15" t="n">
@@ -1050,22 +1050,22 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="5" t="n">
         <v>0.9862</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="5" t="n">
         <v>0.0435</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="5" t="n">
         <v>0.989</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="5" t="n">
         <v>0.0419</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="5" t="n">
         <v>0.9911</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="H16" t="n">
@@ -1081,22 +1081,22 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="5" t="n">
         <v>0.9931</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="5" t="n">
         <v>0.0191</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.9903999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.034</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="5" t="n">
         <v>0.9903999999999999</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="5" t="n">
         <v>0.0332</v>
       </c>
       <c r="H17" t="n">
@@ -1105,6 +1105,37 @@
       <c r="I17" t="inlineStr">
         <is>
           <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;256-&gt;6, dropout 0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9938</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9972</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9941</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="H18" t="n">
+        <v>47</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;256-&gt;6, dropout 0.25</t>
         </is>
       </c>
     </row>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -1112,22 +1112,22 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="5" t="n">
         <v>0.9938</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="5" t="n">
         <v>0.0177</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="5" t="n">
         <v>0.9972</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5" t="n">
         <v>0.0135</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="5" t="n">
         <v>0.9941</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5" t="n">
         <v>0.0174</v>
       </c>
       <c r="H18" t="n">
@@ -1136,6 +1136,37 @@
       <c r="I18" t="inlineStr">
         <is>
           <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;256-&gt;6, dropout 0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9899</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0291</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9959</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9937</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="H19" t="n">
+        <v>45</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.25</t>
         </is>
       </c>
     </row>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -1170,6 +1170,37 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9878</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="H20" t="n">
+        <v>45</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -1201,6 +1201,37 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9944</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9959</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9944</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0211</v>
+      </c>
+      <c r="H21" t="n">
+        <v>45</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -1232,6 +1232,37 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9885</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0383</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="H22" t="n">
+        <v>46</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -1263,6 +1263,37 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9877</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0396</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9931</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9937</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="H23" t="n">
+        <v>46</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,10 +488,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" activeCellId="1" sqref="A19:XFD23 A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1143,22 +1143,22 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="5" t="n">
         <v>0.9899</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="5" t="n">
         <v>0.0291</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="5" t="n">
         <v>0.9959</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="5" t="n">
         <v>0.0121</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="5" t="n">
         <v>0.9937</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5" t="n">
         <v>0.0241</v>
       </c>
       <c r="H19" t="n">
@@ -1174,22 +1174,22 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="5" t="n">
         <v>0.9835</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="5" t="n">
         <v>0.0535</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="5" t="n">
         <v>0.9835</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="5" t="n">
         <v>0.0417</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="5" t="n">
         <v>0.9878</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="5" t="n">
         <v>0.0368</v>
       </c>
       <c r="H20" t="n">
@@ -1205,22 +1205,22 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="5" t="n">
         <v>0.9944</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="5" t="n">
         <v>0.0161</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5" t="n">
         <v>0.9959</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="5" t="n">
         <v>0.021</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="5" t="n">
         <v>0.9944</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="5" t="n">
         <v>0.0211</v>
       </c>
       <c r="H21" t="n">
@@ -1236,22 +1236,22 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="5" t="n">
         <v>0.988</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="5" t="n">
         <v>0.0365</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="5" t="n">
         <v>0.9885</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="5" t="n">
         <v>0.0383</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="5" t="n">
         <v>0.987</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="5" t="n">
         <v>0.0382</v>
       </c>
       <c r="H22" t="n">
@@ -1267,22 +1267,22 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="5" t="n">
         <v>0.9877</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="5" t="n">
         <v>0.0396</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="5" t="n">
         <v>0.9931</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="5" t="n">
         <v>0.0255</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="5" t="n">
         <v>0.9937</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="5" t="n">
         <v>0.0215</v>
       </c>
       <c r="H23" t="n">
@@ -1291,6 +1291,37 @@
       <c r="I23" t="inlineStr">
         <is>
           <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9937</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0389</v>
+      </c>
+      <c r="H24" t="n">
+        <v>46</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.28</t>
         </is>
       </c>
     </row>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A19:XFD23 A12:XFD12"/>
@@ -1325,6 +1325,37 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9882</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0389</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9893999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0359</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9885</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="H25" t="n">
+        <v>45</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A19:XFD23 A12:XFD12"/>
@@ -1356,6 +1356,37 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9942</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0214</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9876</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0328</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9867</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="H26" t="n">
+        <v>46</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A19:XFD23 A12:XFD12"/>
@@ -1387,6 +1387,37 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9948</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0209</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9944</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="H27" t="n">
+        <v>45</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.285</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A19:XFD23 A12:XFD12"/>
@@ -1418,6 +1418,37 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9905</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9784</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9811</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="H28" t="n">
+        <v>45</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.275</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A19:XFD23 A12:XFD12"/>
@@ -1449,6 +1449,37 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9951</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9948</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="H29" t="n">
+        <v>46</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.282</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A19:XFD23 A12:XFD12"/>
@@ -1480,6 +1480,37 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0351</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9913</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9952</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0167</v>
+      </c>
+      <c r="H30" t="n">
+        <v>46</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.286</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A19:XFD23 A12:XFD12"/>
@@ -1511,6 +1511,37 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9936</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9885</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9881</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0483</v>
+      </c>
+      <c r="H31" t="n">
+        <v>46</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.287</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A19:XFD23 A12:XFD12"/>
@@ -1542,6 +1542,37 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0313</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9881</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0528</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0384</v>
+      </c>
+      <c r="H32" t="n">
+        <v>46</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.283</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>

--- a/AI data recover.xlsx
+++ b/AI data recover.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A19:XFD23 A12:XFD12"/>
@@ -1573,6 +1573,37 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9928</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0361</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="H33" t="n">
+        <v>45</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(3,3)conv2d 8-&gt;32-&gt;64-&gt;128, (2,2)max pooling, dense 1024-&gt;512-&gt;6, dropout 0.284</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:L2"/>
